--- a/results/reg_tables_formatted.xlsx
+++ b/results/reg_tables_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihzhang/Documents/GitHub/psid-rs/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D025B373-C2D6-434E-B21D-D7D42854E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C612F3-EF30-004F-9895-9401E9FFB4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21100" windowHeight="15100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="295">
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="291">
   <si>
     <t>2a</t>
   </si>
@@ -62,9 +56,6 @@
     <t>Models</t>
   </si>
   <si>
-    <t>R-Squared</t>
-  </si>
-  <si>
     <t>Observations</t>
   </si>
   <si>
@@ -1268,131 +1259,125 @@
     <t>Made an involuntary move (ref = No)</t>
   </si>
   <si>
-    <r>
+    <t>R-squared</t>
+  </si>
+  <si>
+    <t>Black Gentrifying</t>
+  </si>
+  <si>
+    <t>Black Nongentrifying</t>
+  </si>
+  <si>
+    <t>Non-Black Gentrifying</t>
+  </si>
+  <si>
+    <t>Interaction term: Origin Gentrification-Race Type * Income Quartile</t>
+  </si>
+  <si>
+    <t>Black Gentrifying * 2nd Income Quartile</t>
+  </si>
+  <si>
+    <t>Black Nongentrifying * 2nd Income Quartile</t>
+  </si>
+  <si>
+    <t>Non-Black Gentrifying * 2nd Income Quartile</t>
+  </si>
+  <si>
+    <t>Black Gentrifying * 3rd Income Quartile</t>
+  </si>
+  <si>
+    <t>Black Nongentrifying * 3rd Income Quartile</t>
+  </si>
+  <si>
+    <t>Non-Black Gentrifying * 3rd Income Quartile</t>
+  </si>
+  <si>
+    <t>Black Gentrifying * 4th Income Quartile</t>
+  </si>
+  <si>
+    <t>Black Nongentrifying * 4th Income Quartile</t>
+  </si>
+  <si>
+    <t>Non-Black Gentrifying * 4th Income Quartile</t>
+  </si>
+  <si>
+    <r>
+      <t>3.342</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.047</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.995</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.027</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>*</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">p&lt;0.05; </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>p&lt;0.01</t>
-    </r>
-  </si>
-  <si>
-    <t>R-squared</t>
-  </si>
-  <si>
-    <t>Black Gentrifying</t>
-  </si>
-  <si>
-    <t>Black Nongentrifying</t>
-  </si>
-  <si>
-    <t>Non-Black Gentrifying</t>
-  </si>
-  <si>
-    <t>Interaction term: Origin Gentrification-Race Type * Income Quartile</t>
-  </si>
-  <si>
-    <t>Black Gentrifying * 2nd Income Quartile</t>
-  </si>
-  <si>
-    <t>Black Nongentrifying * 2nd Income Quartile</t>
-  </si>
-  <si>
-    <t>Non-Black Gentrifying * 2nd Income Quartile</t>
-  </si>
-  <si>
-    <t>Black Gentrifying * 3rd Income Quartile</t>
-  </si>
-  <si>
-    <t>Black Nongentrifying * 3rd Income Quartile</t>
-  </si>
-  <si>
-    <t>Non-Black Gentrifying * 3rd Income Quartile</t>
-  </si>
-  <si>
-    <t>Black Gentrifying * 4th Income Quartile</t>
-  </si>
-  <si>
-    <t>Black Nongentrifying * 4th Income Quartile</t>
-  </si>
-  <si>
-    <t>Non-Black Gentrifying * 4th Income Quartile</t>
-  </si>
-  <si>
-    <t>Panel year fixed effects included</t>
-  </si>
-  <si>
-    <r>
-      <t>3.342</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.047</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.995</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.027</t>
+  </si>
+  <si>
+    <r>
+      <t>2.986</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.837</t>
     </r>
     <r>
       <rPr>
@@ -1407,22 +1392,67 @@
   </si>
   <si>
     <r>
-      <t>2.986</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.837</t>
+      <t>-1.285</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-2.316</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-3.328</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.338</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.178</t>
     </r>
     <r>
       <rPr>
@@ -1437,67 +1467,187 @@
   </si>
   <si>
     <r>
-      <t>-1.285</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-2.316</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-3.328</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.338</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.178</t>
+      <t>-4.994</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-6.729</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.312</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.293</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-6.452</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-8.205</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.107</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.941</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.969</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-7.553</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-7.544</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.010</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.058</t>
     </r>
     <r>
       <rPr>
@@ -1512,187 +1662,7 @@
   </si>
   <si>
     <r>
-      <t>-4.994</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-6.729</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.312</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.293</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-6.452</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-8.205</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.107</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9.941</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9.969</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-7.553</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-7.544</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.010</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.058</t>
+      <t>-1.060</t>
     </r>
     <r>
       <rPr>
@@ -1707,7 +1677,157 @@
   </si>
   <si>
     <r>
-      <t>-1.060</t>
+      <t>2.500</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.518</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.535</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.549</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.260</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.319</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>70.847</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>71.288</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-53.929</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-54.229</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.017</t>
     </r>
     <r>
       <rPr>
@@ -1722,157 +1842,7 @@
   </si>
   <si>
     <r>
-      <t>2.500</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.518</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.535</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.549</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.260</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.319</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>70.847</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>71.288</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-53.929</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-54.229</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.017</t>
+      <t>1.031</t>
     </r>
     <r>
       <rPr>
@@ -1887,7 +1857,22 @@
   </si>
   <si>
     <r>
-      <t>1.031</t>
+      <t>-1.391</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.011</t>
     </r>
     <r>
       <rPr>
@@ -1902,22 +1887,7 @@
   </si>
   <si>
     <r>
-      <t>-1.391</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.011</t>
+      <t>1.077</t>
     </r>
     <r>
       <rPr>
@@ -1932,7 +1902,7 @@
   </si>
   <si>
     <r>
-      <t>1.077</t>
+      <t>1.071</t>
     </r>
     <r>
       <rPr>
@@ -1947,7 +1917,7 @@
   </si>
   <si>
     <r>
-      <t>1.071</t>
+      <t>1.809</t>
     </r>
     <r>
       <rPr>
@@ -1962,7 +1932,7 @@
   </si>
   <si>
     <r>
-      <t>1.809</t>
+      <t>1.787</t>
     </r>
     <r>
       <rPr>
@@ -1977,7 +1947,217 @@
   </si>
   <si>
     <r>
-      <t>1.787</t>
+      <t>-14.316</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-14.380</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.231</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.224</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.221</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.095</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.312</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.309</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.207</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.209</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.766</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.763</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.879</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.863</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.111</t>
     </r>
     <r>
       <rPr>
@@ -1992,217 +2172,7 @@
   </si>
   <si>
     <r>
-      <t>-14.316</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-14.380</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.231</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.224</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.221</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.095</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.312</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.309</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.207</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.209</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.766</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.763</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.879</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.863</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.111</t>
+      <t>1.110</t>
     </r>
     <r>
       <rPr>
@@ -2217,7 +2187,124 @@
   </si>
   <si>
     <r>
-      <t>1.110</t>
+      <t>0.496</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.527</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17.464</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18.168</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>22.351</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>21.772</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <t>Log Likelihood</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Origin Gentrification-Race Type (ref = Non-Black Nongentrifying)</t>
+  </si>
+  <si>
+    <r>
+      <t>-0.130</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.147</t>
     </r>
     <r>
       <rPr>
@@ -2232,127 +2319,7 @@
   </si>
   <si>
     <r>
-      <t>0.496</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.527</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>17.464</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>18.168</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>22.351</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>21.772</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <t>Log Likelihood</t>
-  </si>
-  <si>
-    <t>UBRE</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>Origin Gentrification-Race Type (ref = Non-Black Nongentrifying)</t>
-  </si>
-  <si>
-    <r>
-      <t>-0.130</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.147</t>
+      <t>-0.232</t>
     </r>
     <r>
       <rPr>
@@ -2367,7 +2334,7 @@
   </si>
   <si>
     <r>
-      <t>-0.232</t>
+      <t>0.639</t>
     </r>
     <r>
       <rPr>
@@ -2382,7 +2349,22 @@
   </si>
   <si>
     <r>
-      <t>0.639</t>
+      <t>-0.072</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.071</t>
     </r>
     <r>
       <rPr>
@@ -2397,22 +2379,427 @@
   </si>
   <si>
     <r>
-      <t>-0.072</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.071</t>
+      <t>-1.032</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.028</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.543</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.545</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.449</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.194</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.186</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.716</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.801</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.105</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.106</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.241</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.243</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.494</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.493</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.940</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.938</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.205</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.204</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.399</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.397</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.533</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.539</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.088</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.090</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.265</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.268</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.191</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.181</t>
     </r>
     <r>
       <rPr>
@@ -2427,427 +2814,22 @@
   </si>
   <si>
     <r>
-      <t>-1.032</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.028</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.543</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.545</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.449</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.194</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.186</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.716</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.801</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.105</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.106</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.241</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.243</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.494</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.493</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.940</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.938</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.205</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.204</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.399</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.397</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.533</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.539</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.088</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.090</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.265</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.268</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.191</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.181</t>
+      <t>Adjusted R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.236</t>
     </r>
     <r>
       <rPr>
@@ -2862,22 +2844,382 @@
   </si>
   <si>
     <r>
-      <t>Adjusted R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.236</t>
+      <t>-0.195</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.119</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.121</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.073</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.074</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.031</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.030</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.542</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.448</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.195</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.189</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.717</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.649</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.104</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.103</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.242</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.495</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.206</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.398</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.400</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1.537</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.087</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.266</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.267</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.188</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-0.178</t>
     </r>
     <r>
       <rPr>
@@ -2891,387 +3233,47 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>-0.195</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.119</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.121</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.073</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.074</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.031</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.030</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.542</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.448</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.195</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.189</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.717</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.649</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.104</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.103</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.242</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.495</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.206</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.398</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.400</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-1.537</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.087</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.266</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.267</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.188</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-0.178</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Gentrification, Income Quartile, and Race Interactions Included </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual-level and Household-level Control Variables Included </t>
+  </si>
+  <si>
+    <t>Panel Year Fixed Effects Included</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Race Categories Included </t>
+  </si>
+  <si>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -3279,56 +3281,6 @@
       </rPr>
       <t>*</t>
     </r>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>3c</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Gentrification, Income Quartile, and Race Interactions Included </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual-level and Household-level Control Variables Included </t>
-  </si>
-  <si>
-    <t>Panel Year Fixed Effects Included</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Race Categories Included </t>
-  </si>
-  <si>
-    <r>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
     <r>
       <rPr>
         <i/>
@@ -3367,6 +3319,12 @@
       </rPr>
       <t>&lt; 0.01</t>
     </r>
+  </si>
+  <si>
+    <t>Interaction term: Race * Income Quartile</t>
+  </si>
+  <si>
+    <t>Interaction term: Gentrification * Income Quartile</t>
   </si>
 </sst>
 </file>
@@ -3431,7 +3389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3442,30 +3400,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3482,7 +3420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3535,47 +3473,35 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3861,48 +3787,48 @@
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C110"/>
+      <selection sqref="A1:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="95.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="59" style="6" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="27"/>
+      <c r="B1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
-      <c r="B2" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>217</v>
+      <c r="B2" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -3916,14 +3842,14 @@
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9">
         <v>-1.7999999999999999E-2</v>
@@ -3943,7 +3869,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="9">
         <v>-3.2000000000000001E-2</v>
@@ -3963,14 +3889,14 @@
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="9">
         <v>2.1999999999999999E-2</v>
@@ -3990,7 +3916,7 @@
     </row>
     <row r="14" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="9">
         <v>-4.8000000000000001E-2</v>
@@ -4010,7 +3936,7 @@
     </row>
     <row r="16" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9">
         <v>4.7E-2</v>
@@ -4030,14 +3956,14 @@
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9">
@@ -4053,7 +3979,7 @@
     </row>
     <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9">
@@ -4069,14 +3995,14 @@
     </row>
     <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9">
@@ -4092,7 +4018,7 @@
     </row>
     <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9">
@@ -4108,7 +4034,7 @@
     </row>
     <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9">
@@ -4124,14 +4050,14 @@
     </row>
     <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9">
@@ -4147,7 +4073,7 @@
     </row>
     <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9">
@@ -4163,7 +4089,7 @@
     </row>
     <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9">
@@ -4179,11 +4105,11 @@
     </row>
     <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -4195,7 +4121,7 @@
     </row>
     <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9">
@@ -4211,7 +4137,7 @@
     </row>
     <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9">
@@ -4227,14 +4153,14 @@
     </row>
     <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9">
@@ -4250,7 +4176,7 @@
     </row>
     <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9">
@@ -4266,7 +4192,7 @@
     </row>
     <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9">
@@ -4282,7 +4208,7 @@
     </row>
     <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9">
@@ -4298,11 +4224,11 @@
     </row>
     <row r="52" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -4314,34 +4240,34 @@
     </row>
     <row r="54" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9">
         <v>0.218</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
     </row>
     <row r="56" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4355,20 +4281,20 @@
     </row>
     <row r="59" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4382,13 +4308,13 @@
     </row>
     <row r="62" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4402,20 +4328,20 @@
     </row>
     <row r="64" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4429,13 +4355,13 @@
     </row>
     <row r="67" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4449,13 +4375,13 @@
     </row>
     <row r="69" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4469,20 +4395,20 @@
     </row>
     <row r="71" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4496,20 +4422,20 @@
     </row>
     <row r="74" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4523,14 +4449,14 @@
     </row>
     <row r="77" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B78" s="9">
         <v>0.84399999999999997</v>
@@ -4550,13 +4476,13 @@
     </row>
     <row r="80" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4570,13 +4496,13 @@
     </row>
     <row r="82" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4590,13 +4516,13 @@
     </row>
     <row r="84" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4610,13 +4536,13 @@
     </row>
     <row r="86" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4630,13 +4556,13 @@
     </row>
     <row r="88" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4650,7 +4576,7 @@
     </row>
     <row r="90" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90" s="9">
         <v>-0.76600000000000001</v>
@@ -4670,20 +4596,20 @@
     </row>
     <row r="92" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4697,7 +4623,7 @@
     </row>
     <row r="95" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B95" s="16">
         <v>0.28100000000000003</v>
@@ -4716,20 +4642,20 @@
     </row>
     <row r="97" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4742,7 +4668,7 @@
     </row>
     <row r="100" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B100" s="9">
         <v>3.0000000000000001E-3</v>
@@ -4760,46 +4686,46 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4813,7 +4739,7 @@
     </row>
     <row r="107" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B107" s="17">
         <v>57279</v>
@@ -4824,7 +4750,7 @@
     </row>
     <row r="108" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B108" s="2">
         <v>0.30499999999999999</v>
@@ -4835,7 +4761,7 @@
     </row>
     <row r="109" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B109" s="18">
         <v>-27302.240000000002</v>
@@ -4846,7 +4772,7 @@
     </row>
     <row r="110" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
@@ -4862,51 +4788,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="60.83203125" style="6" customWidth="1"/>
     <col min="2" max="3" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="29"/>
+      <c r="B1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
-      <c r="B2" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B4" s="9">
         <v>-9.1999999999999998E-2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -4920,7 +4846,7 @@
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B6" s="9">
         <v>-2.1999999999999999E-2</v>
@@ -4940,7 +4866,7 @@
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B8" s="9">
         <v>-2E-3</v>
@@ -4960,7 +4886,7 @@
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="9">
         <v>-3.5999999999999997E-2</v>
@@ -4980,14 +4906,14 @@
     </row>
     <row r="12" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="9">
         <v>2.1000000000000001E-2</v>
@@ -5007,7 +4933,7 @@
     </row>
     <row r="15" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="9">
         <v>-4.9000000000000002E-2</v>
@@ -5027,7 +4953,7 @@
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="9">
         <v>4.4999999999999998E-2</v>
@@ -5045,16 +4971,16 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9">
@@ -5070,7 +4996,7 @@
     </row>
     <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9">
@@ -5086,7 +5012,7 @@
     </row>
     <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9">
@@ -5102,7 +5028,7 @@
     </row>
     <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9">
@@ -5118,7 +5044,7 @@
     </row>
     <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9">
@@ -5134,7 +5060,7 @@
     </row>
     <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9">
@@ -5150,7 +5076,7 @@
     </row>
     <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9">
@@ -5166,11 +5092,11 @@
     </row>
     <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -5182,7 +5108,7 @@
     </row>
     <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9">
@@ -5198,7 +5124,7 @@
     </row>
     <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9">
@@ -5214,7 +5140,7 @@
     </row>
     <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9">
@@ -5230,7 +5156,7 @@
     </row>
     <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9">
@@ -5246,20 +5172,20 @@
     </row>
     <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -5272,20 +5198,20 @@
     </row>
     <row r="47" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5298,20 +5224,20 @@
     </row>
     <row r="50" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5325,13 +5251,13 @@
     </row>
     <row r="53" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5345,20 +5271,20 @@
     </row>
     <row r="55" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5372,13 +5298,13 @@
     </row>
     <row r="58" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5392,13 +5318,13 @@
     </row>
     <row r="60" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5412,20 +5338,20 @@
     </row>
     <row r="62" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5439,20 +5365,20 @@
     </row>
     <row r="65" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5466,14 +5392,14 @@
     </row>
     <row r="68" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B69" s="9">
         <v>0.84099999999999997</v>
@@ -5493,13 +5419,13 @@
     </row>
     <row r="71" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5513,13 +5439,13 @@
     </row>
     <row r="73" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5533,13 +5459,13 @@
     </row>
     <row r="75" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5553,13 +5479,13 @@
     </row>
     <row r="77" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5573,13 +5499,13 @@
     </row>
     <row r="79" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5593,7 +5519,7 @@
     </row>
     <row r="81" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B81" s="9">
         <v>-0.76700000000000002</v>
@@ -5613,20 +5539,20 @@
     </row>
     <row r="83" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5640,7 +5566,7 @@
     </row>
     <row r="86" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B86" s="9">
         <v>0.28000000000000003</v>
@@ -5660,20 +5586,20 @@
     </row>
     <row r="88" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5687,7 +5613,7 @@
     </row>
     <row r="91" spans="1:3" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B91" s="9">
         <v>3.0000000000000001E-3</v>
@@ -5707,71 +5633,71 @@
     </row>
     <row r="93" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="13"/>
-      <c r="B97" s="16">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="15" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="21">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="21">
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="25">
+    <row r="98" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="17">
         <v>57279</v>
       </c>
-      <c r="C98" s="25">
+      <c r="C98" s="17">
         <v>57279</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B99" s="2">
         <v>0.30499999999999999</v>
@@ -5780,9 +5706,9 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B100" s="18">
         <v>-27303.42</v>
@@ -5791,27 +5717,16 @@
         <v>-27301.68</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B101" s="2">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="C101" s="2">
-        <v>-4.7E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
+    <row r="101" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B101:C101"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5821,752 +5736,772 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E122" sqref="A1:E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="102.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="63.1640625" style="6" customWidth="1"/>
     <col min="2" max="5" width="10.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16">
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="C5" s="16">
+        <v>-1.42</v>
+      </c>
+      <c r="D5" s="16">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="E5" s="16">
+        <v>-1.151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.115</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="C8" s="16">
+        <v>-2.4140000000000001</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-0.66800000000000004</v>
+      </c>
+      <c r="E8" s="16">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16">
+        <v>-0.47599999999999998</v>
+      </c>
+      <c r="C10" s="16">
+        <v>-1.4019999999999999</v>
+      </c>
+      <c r="D10" s="16">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="E10" s="16">
+        <v>-1.2629999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16">
-        <v>-0.45400000000000001</v>
-      </c>
-      <c r="C9" s="16">
-        <v>-1.42</v>
-      </c>
-      <c r="D9" s="16">
-        <v>-0.38300000000000001</v>
-      </c>
-      <c r="E9" s="16">
-        <v>-1.151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="9">
-        <v>1.115</v>
-      </c>
-      <c r="C11" s="9">
-        <v>4.1020000000000003</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2.173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="16">
-        <v>-0.77800000000000002</v>
-      </c>
-      <c r="C12" s="16">
-        <v>-2.4140000000000001</v>
-      </c>
-      <c r="D12" s="16">
-        <v>-0.66800000000000004</v>
-      </c>
-      <c r="E12" s="16">
-        <v>-2.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9">
+        <v>-2.3290000000000002</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16">
+        <v>-0.44500000000000001</v>
+      </c>
+      <c r="C13" s="16">
+        <v>-1.877</v>
+      </c>
+      <c r="D13" s="16">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="E13" s="16">
+        <v>-1.782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="9">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16">
-        <v>-0.47599999999999998</v>
-      </c>
-      <c r="C14" s="16">
-        <v>-1.4019999999999999</v>
-      </c>
-      <c r="D14" s="16">
-        <v>-0.38400000000000001</v>
-      </c>
-      <c r="E14" s="16">
-        <v>-1.2629999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16">
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="C15" s="16">
+        <v>-2.0310000000000001</v>
+      </c>
+      <c r="D15" s="16">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="E15" s="16">
+        <v>-2.0270000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="B16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="9">
-        <v>-2.3290000000000002</v>
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="16">
-        <v>-0.44500000000000001</v>
+        <v>-0.629</v>
       </c>
       <c r="C17" s="16">
-        <v>-1.877</v>
+        <v>-2.4590000000000001</v>
       </c>
       <c r="D17" s="16">
-        <v>-0.38700000000000001</v>
+        <v>-0.62</v>
       </c>
       <c r="E17" s="16">
-        <v>-1.782</v>
+        <v>-2.3740000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <v>-4.7569999999999997</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <v>-2.399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16">
+        <v>-2.7679999999999998</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
+        <v>-2.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="16">
-        <v>-0.54500000000000004</v>
-      </c>
-      <c r="C19" s="16">
-        <v>-2.0310000000000001</v>
-      </c>
-      <c r="D19" s="16">
-        <v>-0.48699999999999999</v>
-      </c>
-      <c r="E19" s="16">
-        <v>-2.0270000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9">
+        <v>-2.8119999999999998</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9">
+        <v>-1.8080000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16">
+        <v>-1.6140000000000001</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16">
+        <v>-1.3779999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9">
+        <v>-1.2569999999999999</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="16">
-        <v>-0.629</v>
-      </c>
-      <c r="C21" s="16">
-        <v>-2.4590000000000001</v>
-      </c>
-      <c r="D21" s="16">
-        <v>-0.62</v>
-      </c>
-      <c r="E21" s="16">
-        <v>-2.3740000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16">
+        <v>-2.1269999999999998</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16">
+        <v>-1.925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9">
-        <v>-4.7569999999999997</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9">
-        <v>-2.399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16">
-        <v>-2.7679999999999998</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16">
-        <v>-2.48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9">
+        <v>-2.9590000000000001</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
+        <v>-2.1280000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16">
+        <v>-2.5649999999999999</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16">
+        <v>-2.282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9">
-        <v>-2.8119999999999998</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9">
-        <v>-1.8080000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16">
-        <v>-1.6140000000000001</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16">
-        <v>-1.3779999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9">
-        <v>-1.2569999999999999</v>
+        <v>-3.3540000000000001</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>72</v>
+      <c r="E28" s="9">
+        <v>2.7810000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16">
-        <v>-2.1269999999999998</v>
+        <v>-3.7890000000000001</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16">
-        <v>-1.925</v>
+        <v>-3.778</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
+      <c r="A30" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="9">
-        <v>-2.9590000000000001</v>
-      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9">
-        <v>-2.1280000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16">
-        <v>-2.5649999999999999</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16">
-        <v>-2.282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9">
+        <v>-2.1230000000000002</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
+        <v>-1.675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16">
+        <v>-3.5409999999999999</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>-3.3759999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9">
+        <v>2.02</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16">
+        <v>-2.0289999999999999</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16">
+        <v>-1.9630000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9">
-        <v>-3.3540000000000001</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9">
-        <v>2.7810000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16">
-        <v>-3.7890000000000001</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16">
-        <v>-3.778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9">
-        <v>-2.1230000000000002</v>
+        <v>0.754</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>-1.675</v>
+        <v>-0.64700000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16">
-        <v>-3.5409999999999999</v>
+        <v>-3.7749999999999999</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16">
-        <v>-3.3759999999999999</v>
+        <v>-3.7509999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
+      <c r="A37" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9">
-        <v>2.02</v>
+        <v>1.956</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>73</v>
+      <c r="E37" s="9">
+        <v>-3.2549999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16">
-        <v>-2.0289999999999999</v>
+        <v>-2.177</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16">
-        <v>-1.9630000000000001</v>
+        <v>-2.1909999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
+      <c r="A39" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9">
-        <v>0.754</v>
+        <v>-3.617</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>-0.64700000000000002</v>
+        <v>1.147</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16">
-        <v>-3.7749999999999999</v>
+        <v>-4.1630000000000003</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16">
-        <v>-3.7509999999999999</v>
+        <v>-4.2409999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>43</v>
+      <c r="A41" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9">
-        <v>1.956</v>
+        <v>1.345</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>-3.2549999999999999</v>
+        <v>-1.492</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16">
-        <v>-2.177</v>
+        <v>-2.5710000000000002</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16">
-        <v>-2.1909999999999998</v>
+        <v>-2.5049999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9">
+        <v>3.56</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9">
+        <v>1.9470000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16">
+        <v>-4.2530000000000001</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16">
+        <v>-3.8639999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9">
-        <v>-3.617</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9">
-        <v>1.147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16">
-        <v>-4.1630000000000003</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16">
-        <v>-4.2409999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9">
+        <v>-1.5449999999999999</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16">
+        <v>-2.423</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16">
+        <v>-2.1890000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9">
-        <v>1.345</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9">
-        <v>-1.492</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16">
-        <v>-2.5710000000000002</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16">
-        <v>-2.5049999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9">
-        <v>3.56</v>
+        <v>1.052</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>1.9470000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16">
-        <v>-4.2530000000000001</v>
+        <v>-5.0970000000000004</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16">
-        <v>-3.8639999999999999</v>
+        <v>-4.6390000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9">
-        <v>-1.5449999999999999</v>
+        <v>-1.111</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>74</v>
+      <c r="E50" s="9">
+        <v>3.7429999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16">
-        <v>-2.423</v>
+        <v>-2.8769999999999998</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16">
-        <v>-2.1890000000000001</v>
+        <v>-2.569</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>50</v>
+      <c r="A52" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9">
-        <v>1.052</v>
+        <v>12.13</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>0.51600000000000001</v>
+        <v>-7.8810000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16">
-        <v>-5.0970000000000004</v>
+        <v>-7.3250000000000002</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16">
-        <v>-4.6390000000000002</v>
+        <v>-6.2030000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>52</v>
+      <c r="A54" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9">
-        <v>-1.111</v>
+        <v>-2.851</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>3.7429999999999999</v>
+        <v>-1.5269999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16">
-        <v>-2.8769999999999998</v>
+        <v>-4.1310000000000002</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16">
-        <v>-2.569</v>
+        <v>-4.13</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9">
-        <v>12.13</v>
+      <c r="A56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9">
-        <v>-7.8810000000000002</v>
-      </c>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
-      <c r="B57" s="16"/>
+      <c r="B57" s="16">
+        <v>-8.9999999999999993E-3</v>
+      </c>
       <c r="C57" s="16">
-        <v>-7.3250000000000002</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="16">
-        <v>-6.2030000000000003</v>
-      </c>
+      <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>53</v>
+      <c r="A58" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="9">
-        <v>-2.851</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9">
-        <v>-1.5269999999999999</v>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="16">
-        <v>-4.1310000000000002</v>
-      </c>
-      <c r="D59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16">
+        <v>-8.9999999999999993E-3</v>
+      </c>
       <c r="E59" s="16">
-        <v>-4.13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>9</v>
+    <row r="61" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D61" s="9">
         <v>0.39300000000000002</v>
@@ -6575,7 +6510,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
       <c r="B62" s="16">
         <v>-0.375</v>
@@ -6590,24 +6525,24 @@
         <v>-0.32500000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
-        <v>12</v>
+    <row r="64" spans="1:5" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D64" s="10">
         <v>0.42899999999999999</v>
@@ -6616,8 +6551,8 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13"/>
+    <row r="65" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="16"/>
       <c r="B65" s="16">
         <v>-0.48</v>
       </c>
@@ -6631,9 +6566,9 @@
         <v>-0.44500000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>11</v>
+    <row r="66" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B66" s="9">
         <v>0.188</v>
@@ -6648,7 +6583,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
       <c r="B67" s="16">
         <v>-0.94199999999999995</v>
@@ -6663,34 +6598,34 @@
         <v>-0.83699999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
-        <v>15</v>
+    <row r="69" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="13"/>
+    </row>
+    <row r="70" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="16"/>
       <c r="B70" s="16">
         <v>-0.46400000000000002</v>
       </c>
@@ -6704,15 +6639,15 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>16</v>
+    <row r="71" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D71" s="9">
         <v>-0.81</v>
@@ -6721,8 +6656,8 @@
         <v>-0.89500000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="13"/>
+    <row r="72" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="16"/>
       <c r="B72" s="16">
         <v>-0.75900000000000001</v>
       </c>
@@ -6736,24 +6671,24 @@
         <v>-0.72199999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
-        <v>11</v>
+    <row r="73" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="13"/>
       <c r="B74" s="16">
         <v>-1.214</v>
@@ -6768,24 +6703,24 @@
         <v>-1.5389999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
-        <v>12</v>
+    <row r="76" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D76" s="9">
         <v>-0.76800000000000002</v>
@@ -6794,7 +6729,7 @@
         <v>-0.77700000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="13"/>
       <c r="B77" s="16">
         <v>-0.45500000000000002</v>
@@ -6809,18 +6744,18 @@
         <v>-0.41699999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
-        <v>12</v>
+    <row r="79" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B79" s="9">
         <v>5.8999999999999997E-2</v>
@@ -6829,13 +6764,13 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="13"/>
       <c r="B80" s="16">
         <v>-0.39</v>
@@ -6850,18 +6785,18 @@
         <v>-0.35099999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
-        <v>20</v>
+    <row r="82" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B82" s="9">
         <v>1.4239999999999999</v>
@@ -6876,8 +6811,8 @@
         <v>3.4089999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="13"/>
+    <row r="83" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="16"/>
       <c r="B83" s="16">
         <v>-7</v>
       </c>
@@ -6891,25 +6826,25 @@
         <v>-5.1909999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
-        <v>21</v>
+    <row r="84" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B84" s="9">
         <v>-0.98499999999999999</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="13"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="16"/>
       <c r="B85" s="16">
         <v>-0.505</v>
       </c>
@@ -6923,9 +6858,9 @@
         <v>-0.45900000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="3" t="s">
-        <v>22</v>
+    <row r="86" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B86" s="9">
         <v>-0.23300000000000001</v>
@@ -6940,8 +6875,8 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="13"/>
+    <row r="87" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="16"/>
       <c r="B87" s="16">
         <v>-0.57699999999999996</v>
       </c>
@@ -6955,12 +6890,12 @@
         <v>-0.52300000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="3" t="s">
-        <v>23</v>
+    <row r="88" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C88" s="9">
         <v>1.157</v>
@@ -6972,8 +6907,8 @@
         <v>-0.97499999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="13"/>
+    <row r="89" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="16"/>
       <c r="B89" s="16">
         <v>-0.63600000000000001</v>
       </c>
@@ -6987,9 +6922,9 @@
         <v>-0.56999999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="3" t="s">
-        <v>24</v>
+    <row r="90" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B90" s="9">
         <v>0.70499999999999996</v>
@@ -7004,8 +6939,8 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="13"/>
+    <row r="91" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="16"/>
       <c r="B91" s="16">
         <v>-0.81200000000000006</v>
       </c>
@@ -7019,9 +6954,9 @@
         <v>-0.75600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="3" t="s">
-        <v>25</v>
+    <row r="92" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B92" s="9">
         <v>-0.502</v>
@@ -7030,14 +6965,14 @@
         <v>-0.52400000000000002</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="13"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="16"/>
       <c r="B93" s="16">
         <v>-0.93200000000000005</v>
       </c>
@@ -7051,15 +6986,15 @@
         <v>-0.85799999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="3" t="s">
-        <v>11</v>
+    <row r="94" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D94" s="9">
         <v>5.3140000000000001</v>
@@ -7068,7 +7003,7 @@
         <v>5.7930000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13"/>
       <c r="B95" s="16">
         <v>-2.484</v>
@@ -7083,18 +7018,18 @@
         <v>-9.2690000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
     </row>
-    <row r="97" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="3" t="s">
-        <v>12</v>
+    <row r="97" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B97" s="9">
         <v>-0.252</v>
@@ -7103,14 +7038,14 @@
         <v>-0.25</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="13"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="16"/>
       <c r="B98" s="16">
         <v>-0.41199999999999998</v>
       </c>
@@ -7124,9 +7059,9 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="3" t="s">
-        <v>11</v>
+    <row r="99" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B99" s="9">
         <v>-1.359</v>
@@ -7141,7 +7076,7 @@
         <v>6.2270000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="13"/>
       <c r="B100" s="16">
         <v>-3.0649999999999999</v>
@@ -7156,33 +7091,33 @@
         <v>-4.6740000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="3" t="s">
-        <v>12</v>
+    <row r="102" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="13"/>
       <c r="B103" s="16">
         <v>-0.40400000000000003</v>
@@ -7197,24 +7132,24 @@
         <v>-0.35499999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
-        <v>26</v>
+    <row r="104" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="13"/>
       <c r="B105" s="16">
         <v>-4.3999999999999997E-2</v>
@@ -7229,18 +7164,18 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
     </row>
-    <row r="107" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="3" t="s">
-        <v>12</v>
+    <row r="107" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B107" s="9">
         <v>-0.47199999999999998</v>
@@ -7249,13 +7184,13 @@
         <v>-0.49099999999999999</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="13"/>
       <c r="B108" s="16">
         <v>-0.318</v>
@@ -7270,24 +7205,24 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="3" t="s">
-        <v>12</v>
+    <row r="110" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D110" s="9">
         <v>-0.69799999999999995</v>
@@ -7296,7 +7231,7 @@
         <v>-0.69</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13"/>
       <c r="B111" s="16">
         <v>-0.48</v>
@@ -7311,24 +7246,24 @@
         <v>-0.44700000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="3" t="s">
-        <v>12</v>
+    <row r="113" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D113" s="9">
         <v>-0.49299999999999999</v>
@@ -7337,7 +7272,7 @@
         <v>-0.49299999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="13"/>
       <c r="B114" s="16">
         <v>-0.46800000000000003</v>
@@ -7352,171 +7287,131 @@
         <v>-0.43099999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115" s="9" t="s">
+    <row r="115" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B115" s="16"/>
+      <c r="C115" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D115" s="16"/>
+      <c r="E115" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C118" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-    </row>
-    <row r="116" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="13"/>
-      <c r="B116" s="16">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="C116" s="16">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-    </row>
-    <row r="117" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9" t="s">
+      <c r="D118" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E117" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="13"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E118" s="16">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="9" t="s">
+      <c r="E118" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="13"/>
-      <c r="B120" s="16">
+    </row>
+    <row r="119" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="21">
         <v>-1.18</v>
       </c>
-      <c r="C120" s="16">
+      <c r="C119" s="21">
         <v>-1.617</v>
       </c>
-      <c r="D120" s="16">
+      <c r="D119" s="21">
         <v>-1.0089999999999999</v>
       </c>
-      <c r="E120" s="16">
+      <c r="E119" s="21">
         <v>-1.399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="27">
+        <v>19301</v>
+      </c>
+      <c r="C120" s="27">
+        <v>19301</v>
+      </c>
+      <c r="D120" s="27">
+        <v>19301</v>
+      </c>
+      <c r="E120" s="27">
+        <v>19301</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="B121" s="12">
+        <v>0.41590293364918501</v>
+      </c>
+      <c r="C121" s="12">
+        <v>0.41702773073212202</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0.39437101486805598</v>
+      </c>
+      <c r="E121" s="12">
+        <v>0.39449678606848299</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" s="12">
-        <v>0.41590293364918501</v>
-      </c>
-      <c r="C122" s="12">
-        <v>0.41702773073212202</v>
-      </c>
-      <c r="D122" s="12">
-        <v>0.39437101486805598</v>
-      </c>
-      <c r="E122" s="12">
-        <v>0.39449678606848299</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="11">
-        <v>19301</v>
-      </c>
-      <c r="C123" s="11">
-        <v>19301</v>
-      </c>
-      <c r="D123" s="11">
-        <v>19301</v>
-      </c>
-      <c r="E123" s="11">
-        <v>19301</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="3"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="31"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-    </row>
-    <row r="126" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-    </row>
-    <row r="127" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
+      <c r="A122" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A125:E125"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7525,668 +7420,689 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="73.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="63" style="6" customWidth="1"/>
     <col min="2" max="5" width="10.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16">
+        <v>-1.2829999999999999</v>
+      </c>
+      <c r="C5" s="16">
+        <v>-1.728</v>
+      </c>
+      <c r="D5" s="16">
+        <v>-1.026</v>
+      </c>
+      <c r="E5" s="16">
+        <v>-1.3660000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16">
+        <v>-0.78200000000000003</v>
+      </c>
+      <c r="C7" s="16">
+        <v>-1.012</v>
+      </c>
+      <c r="D7" s="16">
+        <v>-0.59499999999999997</v>
+      </c>
+      <c r="E7" s="16">
+        <v>-0.71899999999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>135</v>
+      <c r="A8" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16">
+        <v>-0.998</v>
+      </c>
+      <c r="C9" s="16">
+        <v>-1.5620000000000001</v>
+      </c>
+      <c r="D9" s="16">
+        <v>-0.89400000000000002</v>
+      </c>
+      <c r="E9" s="16">
+        <v>-1.319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="9">
-        <v>2.4390000000000001</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1.464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16">
-        <v>-1.2829999999999999</v>
-      </c>
-      <c r="C9" s="16">
-        <v>-1.728</v>
-      </c>
-      <c r="D9" s="16">
-        <v>-1.026</v>
-      </c>
-      <c r="E9" s="16">
-        <v>-1.3660000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.42599999999999999</v>
-      </c>
       <c r="E10" s="9">
-        <v>0.86899999999999999</v>
+        <v>-0.44700000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="16">
-        <v>-0.78200000000000003</v>
+        <v>-0.57599999999999996</v>
       </c>
       <c r="C11" s="16">
-        <v>-1.012</v>
+        <v>-0.86899999999999999</v>
       </c>
       <c r="D11" s="16">
-        <v>-0.59499999999999997</v>
+        <v>-0.49299999999999999</v>
       </c>
       <c r="E11" s="16">
-        <v>-0.71899999999999997</v>
+        <v>-0.67300000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="9">
-        <v>1.5920000000000001</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16">
-        <v>-0.998</v>
-      </c>
-      <c r="C13" s="16">
-        <v>-1.5620000000000001</v>
-      </c>
-      <c r="D13" s="16">
-        <v>-0.89400000000000002</v>
-      </c>
-      <c r="E13" s="16">
-        <v>-1.319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16">
+        <v>-0.44500000000000001</v>
+      </c>
+      <c r="C14" s="16">
+        <v>-1.1930000000000001</v>
+      </c>
+      <c r="D14" s="16">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="E14" s="16">
+        <v>-1.0029999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="9">
-        <v>-0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16">
-        <v>-0.57599999999999996</v>
-      </c>
-      <c r="C15" s="16">
-        <v>-0.86899999999999999</v>
-      </c>
-      <c r="D15" s="16">
-        <v>-0.49299999999999999</v>
-      </c>
-      <c r="E15" s="16">
-        <v>-0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="16">
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="C16" s="16">
+        <v>-1.4530000000000001</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-0.48599999999999999</v>
+      </c>
+      <c r="E16" s="16">
+        <v>-1.2969999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="B17" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="16">
-        <v>-0.44500000000000001</v>
+        <v>-0.629</v>
       </c>
       <c r="C18" s="16">
-        <v>-1.1930000000000001</v>
+        <v>-2.0880000000000001</v>
       </c>
       <c r="D18" s="16">
-        <v>-0.38700000000000001</v>
+        <v>-0.62</v>
       </c>
       <c r="E18" s="16">
-        <v>-1.0029999999999999</v>
+        <v>-2.028</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="16">
-        <v>-0.54500000000000004</v>
-      </c>
-      <c r="C20" s="16">
-        <v>-1.4530000000000001</v>
-      </c>
-      <c r="D20" s="16">
-        <v>-0.48599999999999999</v>
-      </c>
-      <c r="E20" s="16">
-        <v>-1.2969999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16">
-        <v>-0.629</v>
-      </c>
-      <c r="C22" s="16">
-        <v>-2.0880000000000001</v>
-      </c>
-      <c r="D22" s="16">
-        <v>-0.62</v>
-      </c>
-      <c r="E22" s="16">
-        <v>-2.028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="A19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9">
+        <v>1.498</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>-1.605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16">
+        <v>-2.8159999999999998</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16">
+        <v>-2.298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
+        <v>-0.109</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>-0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16">
+        <v>-1.667</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16">
+        <v>-1.3149999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>139</v>
+      <c r="A24" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9">
-        <v>1.498</v>
+        <v>-0.109</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
-        <v>-1.605</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16">
-        <v>-2.8159999999999998</v>
+        <v>-2.371</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16">
-        <v>-2.298</v>
+        <v>-2.0739999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>140</v>
+      <c r="A26" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9">
-        <v>-0.109</v>
+        <v>1.58</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>-0.61899999999999999</v>
+        <v>-1.153</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16">
-        <v>-1.667</v>
+        <v>-1.3089999999999999</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16">
-        <v>-1.3149999999999999</v>
+        <v>-1.1120000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>141</v>
+      <c r="A28" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9">
-        <v>-0.109</v>
+        <v>0.222</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>0.40899999999999997</v>
+        <v>-0.81599999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16">
-        <v>-2.371</v>
+        <v>-4.1260000000000003</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16">
-        <v>-2.0739999999999998</v>
+        <v>-3.4020000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>45</v>
+      <c r="A30" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9">
-        <v>1.58</v>
+        <v>-1.3620000000000001</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>-1.153</v>
+        <v>-0.30499999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16">
-        <v>-1.3089999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16">
-        <v>-1.1120000000000001</v>
+        <v>-1.8480000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>142</v>
+      <c r="A32" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9">
-        <v>0.222</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>-0.81599999999999995</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16">
-        <v>-4.1260000000000003</v>
+        <v>-2.7879999999999998</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16">
-        <v>-3.4020000000000001</v>
+        <v>-2.5649999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>143</v>
+      <c r="A34" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9">
-        <v>-1.3620000000000001</v>
+        <v>2.4209999999999998</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>-0.30499999999999999</v>
+        <v>-1.3580000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16">
-        <v>-2.4</v>
+        <v>-1.5569999999999999</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16">
-        <v>-1.8480000000000001</v>
+        <v>-1.3959999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>144</v>
+      <c r="A36" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9">
-        <v>2.6669999999999998</v>
+        <v>6.6210000000000004</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>0.58799999999999997</v>
+        <v>-7.258</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16">
-        <v>-2.7879999999999998</v>
+        <v>-5.4379999999999997</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16">
-        <v>-2.5649999999999999</v>
+        <v>-4.2670000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>43</v>
+      <c r="A38" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9">
-        <v>2.4209999999999998</v>
+        <v>-0.70199999999999996</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>-1.3580000000000001</v>
+        <v>-1.5660000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16">
-        <v>-1.5569999999999999</v>
+        <v>-3.9710000000000001</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16">
-        <v>-1.3959999999999999</v>
+        <v>-3.5630000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>145</v>
+      <c r="A40" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9">
-        <v>6.6210000000000004</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>-7.258</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16">
-        <v>-5.4379999999999997</v>
+        <v>-3.492</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16">
-        <v>-4.2670000000000003</v>
+        <v>-3.4209999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>146</v>
+      <c r="A42" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9">
-        <v>-0.70199999999999996</v>
+        <v>2.298</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>-1.5660000000000001</v>
+        <v>-2.669</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16">
-        <v>-3.9710000000000001</v>
+        <v>-2.145</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16">
-        <v>-3.5630000000000002</v>
+        <v>-2.0939999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>147</v>
+      <c r="A44" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="9">
-        <v>0.96799999999999997</v>
-      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="9">
-        <v>0.60099999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16">
-        <v>-3.492</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16">
-        <v>-3.4209999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9">
-        <v>2.298</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9">
-        <v>-2.669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16">
-        <v>-2.145</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16">
-        <v>-2.0939999999999999</v>
-      </c>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="16">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="C46" s="16">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="D46" s="16">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="E46" s="16">
+        <v>-0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="16">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="C48" s="16">
+        <v>-8.9999999999999993E-3</v>
+      </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>168</v>
-      </c>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="9" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
-      <c r="B50" s="16">
-        <v>-0.46800000000000003</v>
-      </c>
-      <c r="C50" s="16">
-        <v>-0.46899999999999997</v>
-      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="16">
-        <v>-0.39500000000000002</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E50" s="16">
-        <v>-0.39600000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" s="9">
         <v>0.39500000000000002</v>
@@ -8195,7 +8111,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="B53" s="16">
         <v>-0.374</v>
@@ -8210,24 +8126,24 @@
         <v>-0.32500000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D55" s="9">
         <v>0.42599999999999999</v>
@@ -8236,7 +8152,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
       <c r="B56" s="16">
         <v>-0.47899999999999998</v>
@@ -8251,9 +8167,9 @@
         <v>-0.44400000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B57" s="9">
         <v>0.17100000000000001</v>
@@ -8268,7 +8184,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
       <c r="B58" s="16">
         <v>-0.94199999999999995</v>
@@ -8283,33 +8199,33 @@
         <v>-0.84</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
       <c r="B61" s="16">
         <v>-0.46400000000000002</v>
@@ -8324,15 +8240,15 @@
         <v>-0.44800000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D62" s="9">
         <v>-0.81</v>
@@ -8341,7 +8257,7 @@
         <v>-0.84499999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
       <c r="B63" s="16">
         <v>-0.75900000000000001</v>
@@ -8356,24 +8272,24 @@
         <v>-0.72199999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
       <c r="B65" s="16">
         <v>-1.216</v>
@@ -8388,24 +8304,24 @@
         <v>-1.137</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D67" s="9">
         <v>-0.76800000000000002</v>
@@ -8414,7 +8330,7 @@
         <v>-0.77800000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
       <c r="B68" s="16">
         <v>-0.45500000000000002</v>
@@ -8429,18 +8345,18 @@
         <v>-0.41599999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B70" s="9">
         <v>5.2999999999999999E-2</v>
@@ -8449,13 +8365,13 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
       <c r="B71" s="16">
         <v>-0.39</v>
@@ -8470,18 +8386,18 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B73" s="9">
         <v>1.258</v>
@@ -8496,7 +8412,7 @@
         <v>3.3719999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="13"/>
       <c r="B74" s="16">
         <v>-6.984</v>
@@ -8511,24 +8427,24 @@
         <v>-5.1950000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="13"/>
       <c r="B76" s="16">
         <v>-0.505</v>
@@ -8543,9 +8459,9 @@
         <v>-0.45800000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B77" s="9">
         <v>-0.26200000000000001</v>
@@ -8560,7 +8476,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="13"/>
       <c r="B78" s="16">
         <v>-0.57699999999999996</v>
@@ -8575,9 +8491,9 @@
         <v>-0.52300000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B79" s="9">
         <v>1.2270000000000001</v>
@@ -8592,7 +8508,7 @@
         <v>-1.0369999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="13"/>
       <c r="B80" s="16">
         <v>-0.63500000000000001</v>
@@ -8607,9 +8523,9 @@
         <v>-0.56999999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B81" s="9">
         <v>0.64100000000000001</v>
@@ -8624,7 +8540,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="13"/>
       <c r="B82" s="16">
         <v>-0.81200000000000006</v>
@@ -8639,9 +8555,9 @@
         <v>-0.75700000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B83" s="9">
         <v>-0.53800000000000003</v>
@@ -8650,13 +8566,13 @@
         <v>-0.51</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="13"/>
       <c r="B84" s="16">
         <v>-0.93100000000000005</v>
@@ -8671,15 +8587,15 @@
         <v>-0.85399999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D85" s="9">
         <v>5.3710000000000004</v>
@@ -8688,7 +8604,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="13"/>
       <c r="B86" s="16">
         <v>-2.5990000000000002</v>
@@ -8703,18 +8619,18 @@
         <v>-9.2460000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B88" s="9">
         <v>-0.25</v>
@@ -8723,13 +8639,13 @@
         <v>-0.27100000000000002</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="13"/>
       <c r="B89" s="16">
         <v>-0.41199999999999998</v>
@@ -8744,9 +8660,9 @@
         <v>-0.40899999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90" s="9">
         <v>-1.409</v>
@@ -8761,7 +8677,7 @@
         <v>5.7750000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="13"/>
       <c r="B91" s="16">
         <v>-3.073</v>
@@ -8776,33 +8692,33 @@
         <v>-4.6909999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="13"/>
       <c r="B94" s="16">
         <v>-0.40400000000000003</v>
@@ -8817,24 +8733,24 @@
         <v>-0.35499999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
       <c r="B96" s="16">
         <v>-4.3999999999999997E-2</v>
@@ -8849,18 +8765,18 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B98" s="9">
         <v>-0.495</v>
@@ -8869,13 +8785,13 @@
         <v>-0.49099999999999999</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="13"/>
       <c r="B99" s="16">
         <v>-0.318</v>
@@ -8890,24 +8806,24 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
     </row>
-    <row r="101" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D101" s="9">
         <v>-0.70499999999999996</v>
@@ -8916,7 +8832,7 @@
         <v>-0.69899999999999995</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="13"/>
       <c r="B102" s="16">
         <v>-0.48</v>
@@ -8931,24 +8847,24 @@
         <v>-0.44700000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D104" s="9">
         <v>-0.49199999999999999</v>
@@ -8957,7 +8873,7 @@
         <v>-0.48399999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" s="15" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="13"/>
       <c r="B105" s="16">
         <v>-0.46800000000000003</v>
@@ -8972,164 +8888,102 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B106" s="9" t="s">
+    <row r="106" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+    </row>
+    <row r="107" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+    </row>
+    <row r="109" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="107" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
-      <c r="B107" s="16">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="C107" s="16">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="13"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E109" s="16">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="13"/>
-      <c r="B111" s="16">
+    </row>
+    <row r="110" spans="1:5" s="15" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="21">
         <v>-1.2050000000000001</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C110" s="21">
         <v>-1.3109999999999999</v>
       </c>
-      <c r="D111" s="16">
+      <c r="D110" s="21">
         <v>-1.042</v>
       </c>
-      <c r="E111" s="16">
+      <c r="E110" s="21">
         <v>-1.0940000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="11">
+        <v>19301</v>
+      </c>
+      <c r="C111" s="11">
+        <v>19301</v>
+      </c>
+      <c r="D111" s="11">
+        <v>19301</v>
+      </c>
+      <c r="E111" s="11">
+        <v>19301</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B113" s="12">
+        <v>130</v>
+      </c>
+      <c r="B112" s="12">
         <v>0.41590293364918501</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C112" s="12">
         <v>0.41702773073212202</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D112" s="12">
         <v>0.39437101486805598</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E112" s="12">
         <v>0.39449678606848299</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="11">
-        <v>19301</v>
-      </c>
-      <c r="C114" s="11">
-        <v>19301</v>
-      </c>
-      <c r="D114" s="11">
-        <v>19301</v>
-      </c>
-      <c r="E114" s="11">
-        <v>19301</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-    </row>
-    <row r="116" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="30"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-    </row>
-    <row r="117" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A115:E115"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
